--- a/hoko-app/speech/data/direction_phrases_data.xlsx
+++ b/hoko-app/speech/data/direction_phrases_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b418592b36030f48/University Work/Y3Project/Hoko/hoko-app/speech/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{985EE793-9D96-40BA-89B3-28C4D8FC2592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5EBFD05-07EB-4402-92EC-2DB2FE75D799}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{985EE793-9D96-40BA-89B3-28C4D8FC2592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B031778-92B9-4D7F-B165-EAFBAFE08B0B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EE7D6259-1F66-4770-9AA5-3771BB98A1E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>真っ直ぐ行って</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>後ろに行く</t>
+  </si>
+  <si>
+    <t>前に歩きます</t>
+  </si>
+  <si>
+    <t>前に行って</t>
+  </si>
+  <si>
+    <t>前に</t>
   </si>
 </sst>
 </file>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B78704-4330-44FA-A44B-FCC0B7550208}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1025,30 @@
         <v>19</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
